--- a/data/trans_orig/P1405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F26E55-3CA6-4563-BEA0-6BBBD09E7D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35951B80-BD26-4EF8-9BBA-08F98C029FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06E4438B-32DD-4445-8AC5-5AD139823886}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ACDDF8B-3B2B-4E3A-9977-AC07CAF4F844}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="303">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -103,844 +103,832 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>2,11%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>99,46%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -1370,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF7D423-8494-4887-B866-D220B516F488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E293A1-8D15-4218-8F24-754FDE5887F2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2363,10 +2351,10 @@
         <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2375,13 +2363,13 @@
         <v>12699</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2384,13 @@
         <v>209331</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -2411,13 +2399,13 @@
         <v>210178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>397</v>
@@ -2426,13 +2414,13 @@
         <v>419510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2476,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2506,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2521,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2536,7 +2524,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2539,13 @@
         <v>3100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2566,13 +2554,13 @@
         <v>3918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2581,13 +2569,13 @@
         <v>7018</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2590,13 @@
         <v>270881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7">
         <v>264</v>
@@ -2617,13 +2605,13 @@
         <v>274178</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -2632,13 +2620,13 @@
         <v>545059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2682,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2745,13 @@
         <v>8166</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2772,13 +2760,13 @@
         <v>9833</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2787,13 +2775,13 @@
         <v>17999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2796,13 @@
         <v>654622</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
         <v>627</v>
@@ -2823,13 +2811,13 @@
         <v>684020</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>1239</v>
@@ -2838,13 +2826,13 @@
         <v>1338642</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2888,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2918,7 +2906,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2933,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2948,7 +2936,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2954,10 @@
         <v>17</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2978,13 +2966,13 @@
         <v>6419</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -2996,10 +2984,10 @@
         <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,10 +3005,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7">
         <v>750</v>
@@ -3029,13 +3017,13 @@
         <v>814976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M34" s="7">
         <v>1464</v>
@@ -3044,13 +3032,13 @@
         <v>1590891</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3112,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3139,7 +3127,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3154,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3157,13 @@
         <v>28765</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -3184,13 +3172,13 @@
         <v>62730</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M37" s="7">
         <v>81</v>
@@ -3199,13 +3187,13 @@
         <v>91495</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3208,13 @@
         <v>3398014</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H38" s="7">
         <v>3239</v>
@@ -3235,13 +3223,13 @@
         <v>3491186</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M38" s="7">
         <v>6423</v>
@@ -3250,13 +3238,13 @@
         <v>6889199</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,7 +3300,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3336,7 +3324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F9AFBE-D949-44B3-B91B-A634F354B879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D4484-A056-4DED-A9C7-4F31EF484637}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3353,7 +3341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3466,7 +3454,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3481,7 +3469,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3496,7 +3484,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3499,13 @@
         <v>5224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3526,13 +3514,13 @@
         <v>7247</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3541,13 +3529,13 @@
         <v>12470</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3550,13 @@
         <v>288537</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>270</v>
@@ -3577,13 +3565,13 @@
         <v>281456</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>532</v>
@@ -3592,13 +3580,13 @@
         <v>569994</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3732,13 +3720,13 @@
         <v>3885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -3750,10 +3738,10 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3759,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>51</v>
@@ -3783,13 +3771,13 @@
         <v>519199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>953</v>
@@ -3801,10 +3789,10 @@
         <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +3896,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,10 +3914,10 @@
         <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3944,7 +3932,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3953,13 +3941,13 @@
         <v>4857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3962,13 @@
         <v>315707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -3992,7 +3980,7 @@
         <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>51</v>
@@ -4004,13 +3992,13 @@
         <v>650017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,7 +4072,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4099,7 +4087,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4114,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4117,13 @@
         <v>973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4144,13 +4132,13 @@
         <v>11505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4159,13 +4147,13 @@
         <v>12478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,10 +4168,10 @@
         <v>368991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>51</v>
@@ -4195,13 +4183,13 @@
         <v>375778</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>701</v>
@@ -4210,13 +4198,13 @@
         <v>744769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,7 +4293,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4320,7 +4308,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4338,13 @@
         <v>4189</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -4368,10 +4356,10 @@
         <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,7 +4377,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>37</v>
@@ -4401,13 +4389,13 @@
         <v>214398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>431</v>
@@ -4416,13 +4404,13 @@
         <v>425619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,7 +4466,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4496,7 +4484,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4511,7 +4499,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4526,7 +4514,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4529,13 @@
         <v>2606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4556,13 +4544,13 @@
         <v>4765</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4571,13 +4559,13 @@
         <v>7371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,10 +4580,10 @@
         <v>260517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>51</v>
@@ -4607,13 +4595,13 @@
         <v>268350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>516</v>
@@ -4622,13 +4610,13 @@
         <v>528867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4672,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4702,7 +4690,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4732,7 +4720,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,10 +4738,10 @@
         <v>44</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4762,13 +4750,13 @@
         <v>12018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -4777,13 +4765,13 @@
         <v>16195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,10 +4789,10 @@
         <v>54</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H30" s="7">
         <v>635</v>
@@ -4813,13 +4801,13 @@
         <v>679276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M30" s="7">
         <v>1211</v>
@@ -4828,13 +4816,13 @@
         <v>1331657</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +4878,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4908,23 +4896,23 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="M32" s="7">
         <v>0</v>
       </c>
@@ -4938,7 +4926,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,10 +4944,10 @@
         <v>80</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -4968,13 +4956,13 @@
         <v>10123</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -4983,13 +4971,13 @@
         <v>17639</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4992,13 @@
         <v>771067</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="H34" s="7">
         <v>746</v>
@@ -5019,13 +5007,13 @@
         <v>816044</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M34" s="7">
         <v>1490</v>
@@ -5034,13 +5022,13 @@
         <v>1587111</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5102,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5129,7 +5117,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5144,7 +5132,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5147,13 @@
         <v>25404</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -5174,13 +5162,13 @@
         <v>55732</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -5189,13 +5177,13 @@
         <v>81136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5198,13 @@
         <v>3368946</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H38" s="7">
         <v>3287</v>
@@ -5231,7 +5219,7 @@
         <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="M38" s="7">
         <v>6496</v>
@@ -5240,13 +5228,13 @@
         <v>6857756</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,7 +5290,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5326,7 +5314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659A17C9-310F-47FE-892D-AC4197F079F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D531A22-E8EA-4BF2-9039-924837D8E1B9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5343,7 +5331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5468,7 +5456,7 @@
         <v>51</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>37</v>
@@ -5483,7 +5471,7 @@
         <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>37</v>
@@ -5522,7 +5510,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5537,7 +5525,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,7 +5561,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5588,7 +5576,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,7 +5647,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>37</v>
@@ -5674,7 +5662,7 @@
         <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>37</v>
@@ -5689,7 +5677,7 @@
         <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>37</v>
@@ -5713,7 +5701,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5728,7 +5716,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5743,7 +5731,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,7 +5752,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5779,7 +5767,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5794,7 +5782,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,7 +5853,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>37</v>
@@ -5880,7 +5868,7 @@
         <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>37</v>
@@ -5895,7 +5883,7 @@
         <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>37</v>
@@ -5919,7 +5907,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5934,7 +5922,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5949,7 +5937,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5985,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6000,7 +5988,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,7 +6059,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>37</v>
@@ -6086,7 +6074,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>37</v>
@@ -6101,7 +6089,7 @@
         <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>37</v>
@@ -6125,7 +6113,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6140,7 +6128,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6155,7 +6143,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6164,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6191,7 +6179,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6206,7 +6194,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6265,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>37</v>
@@ -6292,7 +6280,7 @@
         <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>37</v>
@@ -6307,7 +6295,7 @@
         <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>
@@ -6331,7 +6319,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6346,7 +6334,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6361,7 +6349,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,7 +6370,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6397,7 +6385,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6412,7 +6400,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6456,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6483,7 +6471,7 @@
         <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>37</v>
@@ -6498,7 +6486,7 @@
         <v>51</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>37</v>
@@ -6513,7 +6501,7 @@
         <v>51</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>37</v>
@@ -6537,7 +6525,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6552,7 +6540,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6567,7 +6555,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,7 +6576,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6603,7 +6591,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6618,7 +6606,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6662,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6689,7 +6677,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>37</v>
@@ -6704,7 +6692,7 @@
         <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>37</v>
@@ -6719,7 +6707,7 @@
         <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>37</v>
@@ -6743,7 +6731,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6773,7 +6761,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,7 +6782,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6824,7 +6812,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6868,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6895,7 +6883,7 @@
         <v>51</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>37</v>
@@ -6910,7 +6898,7 @@
         <v>51</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>37</v>
@@ -6925,7 +6913,7 @@
         <v>51</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>37</v>
@@ -6949,7 +6937,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6964,7 +6952,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6979,7 +6967,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,7 +6988,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7015,7 +7003,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7030,7 +7018,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,7 +7089,7 @@
         <v>51</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>37</v>
@@ -7116,7 +7104,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>37</v>
@@ -7125,13 +7113,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>37</v>
@@ -7155,7 +7143,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7170,7 +7158,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7185,7 +7173,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,7 +7194,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7221,7 +7209,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7236,7 +7224,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7266,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>37</v>
@@ -7292,7 +7280,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35951B80-BD26-4EF8-9BBA-08F98C029FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7474E2-8F41-48C3-9C71-F1D064262D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ACDDF8B-3B2B-4E3A-9977-AC07CAF4F844}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BCC45AB-7FA8-4A36-AF91-70A4F76BC99F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="316">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -112,808 +112,847 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
     <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -1358,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E293A1-8D15-4218-8F24-754FDE5887F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B6BE4B-BDAB-49D4-A1A0-C24E68B46B96}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2288,37 +2327,37 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2372,13 @@
         <v>3287</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2348,13 +2387,13 @@
         <v>9413</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2363,13 +2402,13 @@
         <v>12699</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2423,13 @@
         <v>209331</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -2399,13 +2438,13 @@
         <v>210178</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>397</v>
@@ -2414,13 +2453,13 @@
         <v>419510</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,7 +2515,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2494,37 +2533,37 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2578,13 @@
         <v>3100</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2554,13 +2593,13 @@
         <v>3918</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2569,13 +2608,13 @@
         <v>7018</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2629,13 @@
         <v>270881</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="H26" s="7">
         <v>264</v>
@@ -2605,13 +2644,13 @@
         <v>274178</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -2620,13 +2659,13 @@
         <v>545059</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2721,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2745,13 +2784,13 @@
         <v>8166</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2760,13 +2799,13 @@
         <v>9833</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2778,7 +2817,7 @@
         <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>127</v>
@@ -2814,10 +2853,10 @@
         <v>131</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M30" s="7">
         <v>1239</v>
@@ -2826,13 +2865,13 @@
         <v>1338642</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2975,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,10 +2993,10 @@
         <v>17</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2984,7 +3023,7 @@
         <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>143</v>
@@ -3005,10 +3044,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7">
         <v>750</v>
@@ -3038,7 +3077,7 @@
         <v>149</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3127,7 +3166,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3142,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3196,13 @@
         <v>28765</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -3172,13 +3211,13 @@
         <v>62730</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="M37" s="7">
         <v>81</v>
@@ -3190,10 +3229,10 @@
         <v>157</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,10 +3247,10 @@
         <v>3398014</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>161</v>
@@ -3226,10 +3265,10 @@
         <v>162</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M38" s="7">
         <v>6423</v>
@@ -3238,13 +3277,13 @@
         <v>6889199</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3339,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D4484-A056-4DED-A9C7-4F31EF484637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1916A44F-0E7E-4D4F-BD3D-3190ECC2239D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,7 +3380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3454,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3469,7 +3508,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3484,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3538,13 @@
         <v>5224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3514,7 +3553,7 @@
         <v>7247</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>173</v>
@@ -3550,13 +3589,13 @@
         <v>288537</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>270</v>
@@ -3565,13 +3604,13 @@
         <v>281456</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>532</v>
@@ -3580,13 +3619,13 @@
         <v>569994</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,7 +3750,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3720,13 +3759,13 @@
         <v>3885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -3738,10 +3777,10 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>51</v>
@@ -3771,13 +3810,13 @@
         <v>519199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>953</v>
@@ -3789,10 +3828,10 @@
         <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3935,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3950,13 @@
         <v>2858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3926,13 +3965,13 @@
         <v>2000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3941,13 +3980,13 @@
         <v>4857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +4001,13 @@
         <v>315707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -3977,10 +4016,10 @@
         <v>334309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>51</v>
@@ -3992,13 +4031,13 @@
         <v>650017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4087,7 +4126,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4117,13 +4156,13 @@
         <v>973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4132,13 +4171,13 @@
         <v>11505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4147,13 +4186,13 @@
         <v>12478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,10 +4207,10 @@
         <v>368991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>51</v>
@@ -4183,13 +4222,13 @@
         <v>375778</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M18" s="7">
         <v>701</v>
@@ -4198,13 +4237,13 @@
         <v>744769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4293,7 +4332,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4308,7 +4347,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4368,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4338,13 +4377,13 @@
         <v>4189</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -4353,13 +4392,13 @@
         <v>4189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,7 +4416,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>37</v>
@@ -4389,13 +4428,13 @@
         <v>214398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>431</v>
@@ -4404,13 +4443,13 @@
         <v>425619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,7 +4505,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4484,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4499,7 +4538,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4514,7 +4553,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4568,13 @@
         <v>2606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4544,13 +4583,13 @@
         <v>4765</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4559,13 +4598,13 @@
         <v>7371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,10 +4619,10 @@
         <v>260517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>51</v>
@@ -4595,13 +4634,13 @@
         <v>268350</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>516</v>
@@ -4610,13 +4649,13 @@
         <v>528867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4711,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4690,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4720,7 +4759,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,10 +4777,10 @@
         <v>44</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4750,13 +4789,13 @@
         <v>12018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -4765,13 +4804,13 @@
         <v>16195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,10 +4828,10 @@
         <v>54</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H30" s="7">
         <v>635</v>
@@ -4801,13 +4840,13 @@
         <v>679276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>1211</v>
@@ -4816,13 +4855,13 @@
         <v>1331657</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4935,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4926,7 +4965,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4980,13 @@
         <v>7516</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -4956,13 +4995,13 @@
         <v>10123</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -4971,13 +5010,13 @@
         <v>17639</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5031,13 @@
         <v>771067</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H34" s="7">
         <v>746</v>
@@ -5010,10 +5049,10 @@
         <v>128</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>1490</v>
@@ -5022,13 +5061,13 @@
         <v>1587111</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5141,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5117,7 +5156,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5132,7 +5171,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5186,13 @@
         <v>25404</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -5162,13 +5201,13 @@
         <v>55732</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -5177,13 +5216,13 @@
         <v>81136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5237,13 @@
         <v>3368946</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>3287</v>
@@ -5213,13 +5252,13 @@
         <v>3488810</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>6496</v>
@@ -5228,13 +5267,13 @@
         <v>6857756</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,7 +5329,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5314,7 +5353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D531A22-E8EA-4BF2-9039-924837D8E1B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0435E9-E5B4-4E59-89E3-2789394BAFF2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5331,7 +5370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5456,7 +5495,7 @@
         <v>51</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>37</v>
@@ -5471,7 +5510,7 @@
         <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>37</v>
@@ -5510,7 +5549,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5525,7 +5564,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,7 +5600,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5576,7 +5615,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5686,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>37</v>
@@ -5662,7 +5701,7 @@
         <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>37</v>
@@ -5677,7 +5716,7 @@
         <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>37</v>
@@ -5701,7 +5740,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5731,7 +5770,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,7 +5791,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5782,7 +5821,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,7 +5892,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>37</v>
@@ -5868,7 +5907,7 @@
         <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>37</v>
@@ -5883,7 +5922,7 @@
         <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>37</v>
@@ -5907,7 +5946,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5922,7 +5961,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5937,7 +5976,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,7 +5997,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5973,7 +6012,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5988,7 +6027,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6098,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>37</v>
@@ -6074,7 +6113,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>37</v>
@@ -6089,7 +6128,7 @@
         <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>37</v>
@@ -6113,7 +6152,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6128,7 +6167,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6143,7 +6182,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6203,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6179,7 +6218,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6194,7 +6233,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,7 +6304,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>37</v>
@@ -6280,7 +6319,7 @@
         <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>37</v>
@@ -6295,7 +6334,7 @@
         <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>
@@ -6319,7 +6358,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6334,7 +6373,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6370,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6385,7 +6424,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6456,7 +6495,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6471,7 +6510,7 @@
         <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>37</v>
@@ -6486,7 +6525,7 @@
         <v>51</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>37</v>
@@ -6501,7 +6540,7 @@
         <v>51</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>37</v>
@@ -6525,7 +6564,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6540,7 +6579,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6555,7 +6594,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,7 +6615,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6591,7 +6630,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6606,7 +6645,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,7 +6701,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6677,7 +6716,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>37</v>
@@ -6692,7 +6731,7 @@
         <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>37</v>
@@ -6707,7 +6746,7 @@
         <v>51</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>37</v>
@@ -6731,7 +6770,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6761,7 +6800,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6812,7 +6851,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,7 +6922,7 @@
         <v>51</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>37</v>
@@ -6898,7 +6937,7 @@
         <v>51</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>37</v>
@@ -6913,7 +6952,7 @@
         <v>51</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>37</v>
@@ -6952,7 +6991,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6967,7 +7006,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,7 +7042,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7018,7 +7057,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,7 +7128,7 @@
         <v>51</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>37</v>
@@ -7104,7 +7143,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>37</v>
@@ -7119,7 +7158,7 @@
         <v>51</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>37</v>
@@ -7143,7 +7182,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7158,7 +7197,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7173,7 +7212,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7233,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7209,7 +7248,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7224,7 +7263,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,7 +7319,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24A7401-6958-4505-9D40-DA8F0DE0ECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF24DC6B-AD7D-4C01-82FD-E523907379DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D7B9A95-6EAA-4F45-A922-FA2801D05645}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CFD34D3A-F77C-4A30-819F-DC2E529D785F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="273">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -72,12 +72,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -135,9 +189,6 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -198,270 +249,279 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
     <t>97,71%</t>
   </si>
   <si>
@@ -558,9 +618,6 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
     <t>2,25%</t>
   </si>
   <si>
@@ -573,9 +630,6 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -612,9 +666,6 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,92%</t>
   </si>
   <si>
@@ -660,9 +711,6 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>4,26%</t>
   </si>
   <si>
@@ -685,9 +733,6 @@
   </si>
   <si>
     <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
   </si>
   <si>
     <t>98,63%</t>
@@ -1222,7 +1267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5686F6-EAAF-424C-AD73-A0A66707262D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C6B71-774E-4996-A590-A2040465A1F4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1340,88 +1385,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3900</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8263</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12162</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D5" s="7">
+        <v>290838</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I5" s="7">
+        <v>278982</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N5" s="7">
+        <v>569821</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,48 +1487,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1483,13 +1546,13 @@
         <v>5269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1498,13 +1561,13 @@
         <v>8749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1513,19 +1576,19 @@
         <v>14019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>467</v>
@@ -1534,13 +1597,13 @@
         <v>500258</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -1549,13 +1612,13 @@
         <v>515016</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>939</v>
@@ -1564,13 +1627,13 @@
         <v>1015273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,13 +1648,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1600,13 +1663,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1615,18 +1678,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1638,13 +1701,13 @@
         <v>1860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -1653,13 +1716,13 @@
         <v>6283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1668,19 +1731,19 @@
         <v>8143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>317</v>
@@ -1689,13 +1752,13 @@
         <v>322186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -1704,13 +1767,13 @@
         <v>334737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -1719,13 +1782,13 @@
         <v>656923</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1803,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1755,13 +1818,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1770,117 +1833,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>18115</v>
+        <v>9852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>22015</v>
+        <v>9852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>623</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>664820</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
-        <v>611</v>
+        <v>362</v>
       </c>
       <c r="I14" s="7">
-        <v>658081</v>
+        <v>379099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>1234</v>
+        <v>706</v>
       </c>
       <c r="N14" s="7">
-        <v>1322901</v>
+        <v>753081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,54 +1952,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1948,13 +2011,13 @@
         <v>3287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1963,13 +2026,13 @@
         <v>9413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1978,19 +2041,19 @@
         <v>12699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>193</v>
@@ -1999,13 +2062,13 @@
         <v>209331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2014,13 +2077,13 @@
         <v>210178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -2029,13 +2092,13 @@
         <v>419510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2113,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2065,13 +2128,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2080,18 +2143,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2103,13 +2166,13 @@
         <v>3100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2118,13 +2181,13 @@
         <v>3918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2133,19 +2196,19 @@
         <v>7018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>258</v>
@@ -2154,13 +2217,13 @@
         <v>270881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2169,13 +2232,13 @@
         <v>274178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -2184,13 +2247,13 @@
         <v>545059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2268,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2220,13 +2283,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2235,18 +2298,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2258,13 +2321,13 @@
         <v>8166</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2273,13 +2336,13 @@
         <v>9833</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2288,19 +2351,19 @@
         <v>17999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>612</v>
@@ -2309,13 +2372,13 @@
         <v>654622</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>627</v>
@@ -2324,13 +2387,13 @@
         <v>684020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1239</v>
@@ -2339,13 +2402,13 @@
         <v>1338642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2423,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2375,13 +2438,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2390,18 +2453,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2413,13 +2476,13 @@
         <v>3184</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2428,13 +2491,13 @@
         <v>6419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2443,19 +2506,19 @@
         <v>9602</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>714</v>
@@ -2464,13 +2527,13 @@
         <v>775914</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>750</v>
@@ -2479,13 +2542,13 @@
         <v>814976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2494,13 +2557,13 @@
         <v>1590891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2578,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -2530,13 +2593,13 @@
         <v>821395</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
@@ -2545,13 +2608,13 @@
         <v>1600493</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2631,13 @@
         <v>28765</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -2583,13 +2646,13 @@
         <v>62730</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>81</v>
@@ -2598,19 +2661,19 @@
         <v>91495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3184</v>
@@ -2619,13 +2682,13 @@
         <v>3398014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>3239</v>
@@ -2634,13 +2697,13 @@
         <v>3491186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>6423</v>
@@ -2649,13 +2712,13 @@
         <v>6889199</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2733,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3295</v>
@@ -2685,13 +2748,13 @@
         <v>3553916</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6504</v>
@@ -2700,18 +2763,18 @@
         <v>6980694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50844462-A54B-4A1C-8908-6BEB2BF39A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED47C75-D051-490C-A6D9-159E019A77E2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2752,7 +2815,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2859,13 +2922,13 @@
         <v>5224</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2874,13 +2937,13 @@
         <v>7247</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2889,19 +2952,19 @@
         <v>12470</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>262</v>
@@ -2910,13 +2973,13 @@
         <v>288537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>270</v>
@@ -2925,13 +2988,13 @@
         <v>281456</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -2940,13 +3003,13 @@
         <v>569994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +3024,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -2976,13 +3039,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -2991,18 +3054,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3014,13 +3077,13 @@
         <v>2051</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3029,13 +3092,13 @@
         <v>3885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3044,19 +3107,19 @@
         <v>5936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>473</v>
@@ -3065,13 +3128,13 @@
         <v>500524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -3080,13 +3143,13 @@
         <v>519199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -3095,13 +3158,13 @@
         <v>1019723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3179,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3131,13 +3194,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3146,18 +3209,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3169,13 +3232,13 @@
         <v>2858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3184,13 +3247,13 @@
         <v>2000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3199,19 +3262,19 @@
         <v>4857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>332</v>
@@ -3220,13 +3283,13 @@
         <v>315707</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>330</v>
@@ -3235,13 +3298,13 @@
         <v>334309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3250,13 +3313,13 @@
         <v>650017</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3334,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3286,13 +3349,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3301,18 +3364,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3324,13 +3387,13 @@
         <v>973</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3339,13 +3402,13 @@
         <v>11505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3354,19 +3417,19 @@
         <v>12478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>353</v>
@@ -3375,13 +3438,13 @@
         <v>368991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -3390,13 +3453,13 @@
         <v>375778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>701</v>
@@ -3405,13 +3468,13 @@
         <v>744769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3489,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3441,13 +3504,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3456,18 +3519,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3479,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3494,13 +3557,13 @@
         <v>4189</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3509,19 +3572,19 @@
         <v>4189</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>212</v>
@@ -3530,13 +3593,13 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -3545,13 +3608,13 @@
         <v>214398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>431</v>
@@ -3560,13 +3623,13 @@
         <v>425619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3644,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3596,13 +3659,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3611,18 +3674,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3634,13 +3697,13 @@
         <v>2606</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3649,13 +3712,13 @@
         <v>4765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3664,19 +3727,19 @@
         <v>7371</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>257</v>
@@ -3685,13 +3748,13 @@
         <v>260517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -3700,13 +3763,13 @@
         <v>268350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -3715,13 +3778,13 @@
         <v>528867</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3799,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3751,13 +3814,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3766,18 +3829,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3789,13 +3852,13 @@
         <v>4178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3804,13 +3867,13 @@
         <v>12018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -3819,19 +3882,19 @@
         <v>16195</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>576</v>
@@ -3840,13 +3903,13 @@
         <v>652380</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
         <v>635</v>
@@ -3855,13 +3918,13 @@
         <v>679276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>1211</v>
@@ -3870,13 +3933,13 @@
         <v>1331657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3954,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3906,13 +3969,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3921,18 +3984,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3944,13 +4007,13 @@
         <v>7516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3959,13 +4022,13 @@
         <v>10123</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -3974,19 +4037,19 @@
         <v>17639</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>744</v>
@@ -3995,13 +4058,13 @@
         <v>771067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>746</v>
@@ -4010,13 +4073,13 @@
         <v>816044</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>1490</v>
@@ -4025,13 +4088,13 @@
         <v>1587111</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4109,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4061,13 +4124,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4076,13 +4139,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4162,13 @@
         <v>25404</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -4114,13 +4177,13 @@
         <v>55732</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M28" s="7">
         <v>73</v>
@@ -4129,19 +4192,19 @@
         <v>81136</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3209</v>
@@ -4150,13 +4213,13 @@
         <v>3368946</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>3287</v>
@@ -4165,13 +4228,13 @@
         <v>3488810</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M29" s="7">
         <v>6496</v>
@@ -4180,13 +4243,13 @@
         <v>6857756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4264,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4216,13 +4279,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4231,18 +4294,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
